--- a/auto/new_data/9_2_Non-ferrous_LME-Copper.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Copper.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>50950</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>6021</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>46486</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>31698</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>31121</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>11298</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>20355</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10236</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>19962</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21215</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>944</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8503</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>693</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>6823</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Copper.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Copper.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50950</t>
+          <t>9044</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6021</t>
+          <t>2402</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>46486</t>
+          <t>43917</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>1469</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31698</t>
+          <t>10151</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31121</t>
+          <t>29198</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11298</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20355</t>
+          <t>20282</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10236</t>
+          <t>7929</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19962</t>
+          <t>20039</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8990</t>
+          <t>8752</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21215</t>
+          <t>22131</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8503</t>
+          <t>8641</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>703</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6823</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Copper.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Copper.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9044</t>
+          <t>9329</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>43917</t>
+          <t>26923</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10151</t>
+          <t>8284</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29198</t>
+          <t>21166</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6417</t>
+          <t>9974</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20282</t>
+          <t>16413</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7929</t>
+          <t>14891</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20039</t>
+          <t>30078</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8752</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22131</t>
+          <t>15268</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>2931</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8641</t>
+          <t>12654</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6935</t>
+          <t>9129</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
